--- a/materialy/mestske-firmy/prehled-majetkovych-ucasti.xlsx
+++ b/materialy/mestske-firmy/prehled-majetkovych-ucasti.xlsx
@@ -206,15 +206,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$Kč-405];[RED]\-#,##0.00\ [$Kč-405]"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -232,16 +232,11 @@
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -279,7 +274,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -303,25 +298,17 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="90" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -342,17 +329,13 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="10">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Výsledek" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Výsledek2" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Nadpis" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Nadpis1" xfId="23" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -424,8 +407,8 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -433,10 +416,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="32.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.55"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="11.52"/>
   </cols>
   <sheetData>
@@ -669,15 +652,10 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="3" t="s">
+      <c r="A21" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="E21" s="0" t="n">
+      <c r="B21" s="0" t="n">
         <v>100</v>
       </c>
     </row>

--- a/materialy/mestske-firmy/prehled-majetkovych-ucasti.xlsx
+++ b/materialy/mestske-firmy/prehled-majetkovych-ucasti.xlsx
@@ -58,7 +58,7 @@
     <t xml:space="preserve">Obecní dům</t>
   </si>
   <si>
-    <t xml:space="preserve">Operátor Opencard</t>
+    <t xml:space="preserve">Operátor ICT</t>
   </si>
   <si>
     <t xml:space="preserve">Pražská plynárenská Holding</t>
@@ -94,7 +94,7 @@
     <t xml:space="preserve">TRADE CENTRE PRAHA</t>
   </si>
   <si>
-    <t xml:space="preserve">TCP – Vinohrady</t>
+    <t xml:space="preserve">Technologie Hlavního města Prahy</t>
   </si>
   <si>
     <t xml:space="preserve">Zdroj pitné vody Káraný</t>
@@ -407,8 +407,8 @@
   </sheetPr>
   <dimension ref="A1:H58"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
